--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-23.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="338">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/22/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/23/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Active Cases 02-21</t>
+  </si>
+  <si>
+    <t>Active Cases 02-22</t>
   </si>
   <si>
     <t/>
@@ -1212,6 +1215,7 @@
     <col min="72" max="72" width="12.0" customWidth="true"/>
     <col min="73" max="73" width="12.0" customWidth="true"/>
     <col min="74" max="74" width="12.0" customWidth="true"/>
+    <col min="75" max="75" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1447,13 +1451,16 @@
       <c r="BV3" t="s" s="10">
         <v>75</v>
       </c>
+      <c r="BW3" t="s" s="10">
+        <v>76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1669,15 +1676,18 @@
         <v>100.0</v>
       </c>
       <c r="BV4" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BW4" t="n">
         <v>87.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1893,15 +1903,18 @@
         <v>147.0</v>
       </c>
       <c r="BV5" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BW5" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2118,14 +2131,17 @@
       </c>
       <c r="BV6" t="n">
         <v>274.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>397.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2342,14 +2358,17 @@
       </c>
       <c r="BV7" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2566,14 +2585,17 @@
       </c>
       <c r="BV8" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2790,14 +2812,17 @@
       </c>
       <c r="BV9" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3014,14 +3039,17 @@
       </c>
       <c r="BV10" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3238,14 +3266,17 @@
       </c>
       <c r="BV11" t="n">
         <v>60.0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3462,14 +3493,17 @@
       </c>
       <c r="BV12" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3686,14 +3720,17 @@
       </c>
       <c r="BV13" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3910,14 +3947,17 @@
       </c>
       <c r="BV14" t="n">
         <v>891.0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>873.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4133,15 +4173,18 @@
         <v>0.0</v>
       </c>
       <c r="BV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4358,14 +4401,17 @@
       </c>
       <c r="BV16" t="n">
         <v>82.0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4582,14 +4628,17 @@
       </c>
       <c r="BV17" t="n">
         <v>1072.0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>418.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4806,14 +4855,17 @@
       </c>
       <c r="BV18" t="n">
         <v>13468.0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>13013.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5030,14 +5082,17 @@
       </c>
       <c r="BV19" t="n">
         <v>90.0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5253,15 +5308,18 @@
         <v>0.0</v>
       </c>
       <c r="BV20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5478,14 +5536,17 @@
       </c>
       <c r="BV21" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5702,14 +5763,17 @@
       </c>
       <c r="BV22" t="n">
         <v>512.0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>526.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5926,14 +5990,17 @@
       </c>
       <c r="BV23" t="n">
         <v>3531.0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>4036.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6150,14 +6217,17 @@
       </c>
       <c r="BV24" t="n">
         <v>1173.0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6373,15 +6443,18 @@
         <v>0.0</v>
       </c>
       <c r="BV25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -6598,14 +6671,17 @@
       </c>
       <c r="BV26" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -6822,14 +6898,17 @@
       </c>
       <c r="BV27" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7045,15 +7124,18 @@
         <v>128.0</v>
       </c>
       <c r="BV28" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BW28" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -7270,14 +7352,17 @@
       </c>
       <c r="BV29" t="n">
         <v>265.0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -7494,14 +7579,17 @@
       </c>
       <c r="BV30" t="n">
         <v>537.0</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>509.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -7718,14 +7806,17 @@
       </c>
       <c r="BV31" t="n">
         <v>568.0</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>499.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -7942,14 +8033,17 @@
       </c>
       <c r="BV32" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -8165,15 +8259,18 @@
         <v>6.0</v>
       </c>
       <c r="BV33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BW33" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -8390,14 +8487,17 @@
       </c>
       <c r="BV34" t="n">
         <v>4745.0</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>4674.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -8614,14 +8714,17 @@
       </c>
       <c r="BV35" t="n">
         <v>176.0</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -8838,14 +8941,17 @@
       </c>
       <c r="BV36" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -9062,14 +9168,17 @@
       </c>
       <c r="BV37" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -9286,14 +9395,17 @@
       </c>
       <c r="BV38" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -9510,14 +9622,17 @@
       </c>
       <c r="BV39" t="n">
         <v>321.0</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -9733,15 +9848,18 @@
         <v>0.0</v>
       </c>
       <c r="BV40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -9958,14 +10076,17 @@
       </c>
       <c r="BV41" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -10181,15 +10302,18 @@
         <v>2.0</v>
       </c>
       <c r="BV42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW42" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -10405,15 +10529,18 @@
         <v>8.0</v>
       </c>
       <c r="BV43" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BW43" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -10630,14 +10757,17 @@
       </c>
       <c r="BV44" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -10853,15 +10983,18 @@
         <v>1.0</v>
       </c>
       <c r="BV45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW45" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -11078,14 +11211,17 @@
       </c>
       <c r="BV46" t="n">
         <v>1361.0</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>1185.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -11302,14 +11438,17 @@
       </c>
       <c r="BV47" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -11526,14 +11665,17 @@
       </c>
       <c r="BV48" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -11750,14 +11892,17 @@
       </c>
       <c r="BV49" t="n">
         <v>630.0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>364.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -11974,14 +12119,17 @@
       </c>
       <c r="BV50" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -12198,14 +12346,17 @@
       </c>
       <c r="BV51" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -12422,14 +12573,17 @@
       </c>
       <c r="BV52" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -12646,14 +12800,17 @@
       </c>
       <c r="BV53" t="n">
         <v>219.0</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -12870,14 +13027,17 @@
       </c>
       <c r="BV54" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -13093,15 +13253,18 @@
         <v>7.0</v>
       </c>
       <c r="BV55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BW55" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -13318,14 +13481,17 @@
       </c>
       <c r="BV56" t="n">
         <v>38.0</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -13542,14 +13708,17 @@
       </c>
       <c r="BV57" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -13766,14 +13935,17 @@
       </c>
       <c r="BV58" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -13990,14 +14162,17 @@
       </c>
       <c r="BV59" t="n">
         <v>138.0</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -14214,14 +14389,17 @@
       </c>
       <c r="BV60" t="n">
         <v>15034.0</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>14246.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -14437,15 +14615,18 @@
         <v>7.0</v>
       </c>
       <c r="BV61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BW61" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -14662,14 +14843,17 @@
       </c>
       <c r="BV62" t="n">
         <v>82.0</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -14885,15 +15069,18 @@
         <v>38.0</v>
       </c>
       <c r="BV63" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BW63" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -15110,14 +15297,17 @@
       </c>
       <c r="BV64" t="n">
         <v>14804.0</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>11953.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -15334,14 +15524,17 @@
       </c>
       <c r="BV65" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -15557,15 +15750,18 @@
         <v>7.0</v>
       </c>
       <c r="BV66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BW66" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -15782,14 +15978,17 @@
       </c>
       <c r="BV67" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -16006,14 +16205,17 @@
       </c>
       <c r="BV68" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -16230,14 +16432,17 @@
       </c>
       <c r="BV69" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -16454,14 +16659,17 @@
       </c>
       <c r="BV70" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -16678,14 +16886,17 @@
       </c>
       <c r="BV71" t="n">
         <v>1459.0</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>1584.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -16901,15 +17112,18 @@
         <v>0.0</v>
       </c>
       <c r="BV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -17126,14 +17340,17 @@
       </c>
       <c r="BV73" t="n">
         <v>229.0</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -17350,14 +17567,17 @@
       </c>
       <c r="BV74" t="n">
         <v>6811.0</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>6799.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -17574,14 +17794,17 @@
       </c>
       <c r="BV75" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -17798,14 +18021,17 @@
       </c>
       <c r="BV76" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -18022,14 +18248,17 @@
       </c>
       <c r="BV77" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -18246,14 +18475,17 @@
       </c>
       <c r="BV78" t="n">
         <v>209.0</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -18470,14 +18702,17 @@
       </c>
       <c r="BV79" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -18693,15 +18928,18 @@
         <v>43.0</v>
       </c>
       <c r="BV80" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BW80" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -18917,15 +19155,18 @@
         <v>0.0</v>
       </c>
       <c r="BV81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -19142,14 +19383,17 @@
       </c>
       <c r="BV82" t="n">
         <v>11220.0</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>11002.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -19365,15 +19609,18 @@
         <v>106.0</v>
       </c>
       <c r="BV83" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BW83" t="n">
         <v>108.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -19590,14 +19837,17 @@
       </c>
       <c r="BV84" t="n">
         <v>95.0</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -19814,14 +20064,17 @@
       </c>
       <c r="BV85" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BW85" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -20037,15 +20290,18 @@
         <v>8.0</v>
       </c>
       <c r="BV86" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BW86" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -20261,15 +20517,18 @@
         <v>5614.0</v>
       </c>
       <c r="BV87" t="n">
+        <v>5614.0</v>
+      </c>
+      <c r="BW87" t="n">
         <v>5614.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -20486,14 +20745,17 @@
       </c>
       <c r="BV88" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BW88" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -20710,14 +20972,17 @@
       </c>
       <c r="BV89" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -20933,15 +21198,18 @@
         <v>0.0</v>
       </c>
       <c r="BV90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -21157,15 +21425,18 @@
         <v>14.0</v>
       </c>
       <c r="BV91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BW91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -21382,14 +21653,17 @@
       </c>
       <c r="BV92" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -21606,14 +21880,17 @@
       </c>
       <c r="BV93" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -21829,15 +22106,18 @@
         <v>130.0</v>
       </c>
       <c r="BV94" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BW94" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -22054,14 +22334,17 @@
       </c>
       <c r="BV95" t="n">
         <v>3161.0</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>3160.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -22278,14 +22561,17 @@
       </c>
       <c r="BV96" t="n">
         <v>387.0</v>
+      </c>
+      <c r="BW96" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -22502,14 +22788,17 @@
       </c>
       <c r="BV97" t="n">
         <v>94.0</v>
+      </c>
+      <c r="BW97" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -22726,14 +23015,17 @@
       </c>
       <c r="BV98" t="n">
         <v>65.0</v>
+      </c>
+      <c r="BW98" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -22950,14 +23242,17 @@
       </c>
       <c r="BV99" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BW99" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -23173,15 +23468,18 @@
         <v>53.0</v>
       </c>
       <c r="BV100" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BW100" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -23398,14 +23696,17 @@
       </c>
       <c r="BV101" t="n">
         <v>51.0</v>
+      </c>
+      <c r="BW101" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -23622,14 +23923,17 @@
       </c>
       <c r="BV102" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -23846,14 +24150,17 @@
       </c>
       <c r="BV103" t="n">
         <v>652.0</v>
+      </c>
+      <c r="BW103" t="n">
+        <v>651.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -24070,14 +24377,17 @@
       </c>
       <c r="BV104" t="n">
         <v>23800.0</v>
+      </c>
+      <c r="BW104" t="n">
+        <v>23454.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -24294,14 +24604,17 @@
       </c>
       <c r="BV105" t="n">
         <v>839.0</v>
+      </c>
+      <c r="BW105" t="n">
+        <v>834.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -24518,14 +24831,17 @@
       </c>
       <c r="BV106" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BW106" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -24741,15 +25057,18 @@
         <v>1.0</v>
       </c>
       <c r="BV107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW107" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -24966,14 +25285,17 @@
       </c>
       <c r="BV108" t="n">
         <v>1397.0</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>714.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -25190,14 +25512,17 @@
       </c>
       <c r="BV109" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -25413,15 +25738,18 @@
         <v>1763.0</v>
       </c>
       <c r="BV110" t="n">
+        <v>1763.0</v>
+      </c>
+      <c r="BW110" t="n">
         <v>1763.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -25638,14 +25966,17 @@
       </c>
       <c r="BV111" t="n">
         <v>1961.0</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>1918.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -25862,14 +26193,17 @@
       </c>
       <c r="BV112" t="n">
         <v>472.0</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>467.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -26086,14 +26420,17 @@
       </c>
       <c r="BV113" t="n">
         <v>73.0</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -26310,14 +26647,17 @@
       </c>
       <c r="BV114" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -26534,14 +26874,17 @@
       </c>
       <c r="BV115" t="n">
         <v>184.0</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -26758,14 +27101,17 @@
       </c>
       <c r="BV116" t="n">
         <v>85.0</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -26982,14 +27328,17 @@
       </c>
       <c r="BV117" t="n">
         <v>71.0</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -27205,15 +27554,18 @@
         <v>19.0</v>
       </c>
       <c r="BV118" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BW118" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -27429,15 +27781,18 @@
         <v>1332.0</v>
       </c>
       <c r="BV119" t="n">
+        <v>1332.0</v>
+      </c>
+      <c r="BW119" t="n">
         <v>1332.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -27654,14 +28009,17 @@
       </c>
       <c r="BV120" t="n">
         <v>63.0</v>
+      </c>
+      <c r="BW120" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -27877,15 +28235,18 @@
         <v>13.0</v>
       </c>
       <c r="BV121" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BW121" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -28102,14 +28463,17 @@
       </c>
       <c r="BV122" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BW122" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -28326,14 +28690,17 @@
       </c>
       <c r="BV123" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BW123" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -28550,14 +28917,17 @@
       </c>
       <c r="BV124" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BW124" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -28773,15 +29143,18 @@
         <v>31.0</v>
       </c>
       <c r="BV125" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BW125" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -28998,14 +29371,17 @@
       </c>
       <c r="BV126" t="n">
         <v>2311.0</v>
+      </c>
+      <c r="BW126" t="n">
+        <v>2269.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -29221,15 +29597,18 @@
         <v>18.0</v>
       </c>
       <c r="BV127" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BW127" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -29446,14 +29825,17 @@
       </c>
       <c r="BV128" t="n">
         <v>59.0</v>
+      </c>
+      <c r="BW128" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -29670,14 +30052,17 @@
       </c>
       <c r="BV129" t="n">
         <v>199.0</v>
+      </c>
+      <c r="BW129" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -29894,14 +30279,17 @@
       </c>
       <c r="BV130" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BW130" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -30118,14 +30506,17 @@
       </c>
       <c r="BV131" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BW131" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -30342,14 +30733,17 @@
       </c>
       <c r="BV132" t="n">
         <v>218.0</v>
+      </c>
+      <c r="BW132" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -30566,14 +30960,17 @@
       </c>
       <c r="BV133" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BW133" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -30789,15 +31186,18 @@
         <v>1.0</v>
       </c>
       <c r="BV134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW134" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -31013,15 +31413,18 @@
         <v>0.0</v>
       </c>
       <c r="BV135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -31238,14 +31641,17 @@
       </c>
       <c r="BV136" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BW136" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -31462,14 +31868,17 @@
       </c>
       <c r="BV137" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BW137" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -31686,14 +32095,17 @@
       </c>
       <c r="BV138" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BW138" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -31909,15 +32321,18 @@
         <v>0.0</v>
       </c>
       <c r="BV139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -32134,14 +32549,17 @@
       </c>
       <c r="BV140" t="n">
         <v>61.0</v>
+      </c>
+      <c r="BW140" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -32357,15 +32775,18 @@
         <v>0.0</v>
       </c>
       <c r="BV141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -32582,14 +33003,17 @@
       </c>
       <c r="BV142" t="n">
         <v>309.0</v>
+      </c>
+      <c r="BW142" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -32806,14 +33230,17 @@
       </c>
       <c r="BV143" t="n">
         <v>41.0</v>
+      </c>
+      <c r="BW143" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -33030,14 +33457,17 @@
       </c>
       <c r="BV144" t="n">
         <v>307.0</v>
+      </c>
+      <c r="BW144" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -33254,14 +33684,17 @@
       </c>
       <c r="BV145" t="n">
         <v>61.0</v>
+      </c>
+      <c r="BW145" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -33478,14 +33911,17 @@
       </c>
       <c r="BV146" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BW146" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -33702,14 +34138,17 @@
       </c>
       <c r="BV147" t="n">
         <v>263.0</v>
+      </c>
+      <c r="BW147" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -33926,14 +34365,17 @@
       </c>
       <c r="BV148" t="n">
         <v>155.0</v>
+      </c>
+      <c r="BW148" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -34150,14 +34592,17 @@
       </c>
       <c r="BV149" t="n">
         <v>356.0</v>
+      </c>
+      <c r="BW149" t="n">
+        <v>311.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -34374,14 +34819,17 @@
       </c>
       <c r="BV150" t="n">
         <v>312.0</v>
+      </c>
+      <c r="BW150" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -34598,14 +35046,17 @@
       </c>
       <c r="BV151" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BW151" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -34822,14 +35273,17 @@
       </c>
       <c r="BV152" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BW152" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -35046,14 +35500,17 @@
       </c>
       <c r="BV153" t="n">
         <v>199.0</v>
+      </c>
+      <c r="BW153" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -35269,15 +35726,18 @@
         <v>0.0</v>
       </c>
       <c r="BV154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -35494,14 +35954,17 @@
       </c>
       <c r="BV155" t="n">
         <v>552.0</v>
+      </c>
+      <c r="BW155" t="n">
+        <v>450.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -35717,15 +36180,18 @@
         <v>7.0</v>
       </c>
       <c r="BV156" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BW156" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -35942,14 +36408,17 @@
       </c>
       <c r="BV157" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BW157" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B158" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -36166,14 +36635,17 @@
       </c>
       <c r="BV158" t="n">
         <v>269.0</v>
+      </c>
+      <c r="BW158" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -36390,14 +36862,17 @@
       </c>
       <c r="BV159" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BW159" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B160" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -36614,14 +37089,17 @@
       </c>
       <c r="BV160" t="n">
         <v>147.0</v>
+      </c>
+      <c r="BW160" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -36838,14 +37316,17 @@
       </c>
       <c r="BV161" t="n">
         <v>113.0</v>
+      </c>
+      <c r="BW161" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -37062,14 +37543,17 @@
       </c>
       <c r="BV162" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BW162" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -37286,14 +37770,17 @@
       </c>
       <c r="BV163" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BW163" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -37510,14 +37997,17 @@
       </c>
       <c r="BV164" t="n">
         <v>135.0</v>
+      </c>
+      <c r="BW164" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -37733,15 +38223,18 @@
         <v>1324.0</v>
       </c>
       <c r="BV165" t="n">
+        <v>1324.0</v>
+      </c>
+      <c r="BW165" t="n">
         <v>1324.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -37958,14 +38451,17 @@
       </c>
       <c r="BV166" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BW166" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -38181,15 +38677,18 @@
         <v>1.0</v>
       </c>
       <c r="BV167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B168" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -38406,14 +38905,17 @@
       </c>
       <c r="BV168" t="n">
         <v>918.0</v>
+      </c>
+      <c r="BW168" t="n">
+        <v>913.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -38629,15 +39131,18 @@
         <v>103.0</v>
       </c>
       <c r="BV169" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BW169" t="n">
         <v>103.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B170" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -38854,14 +39359,17 @@
       </c>
       <c r="BV170" t="n">
         <v>66.0</v>
+      </c>
+      <c r="BW170" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -39077,15 +39585,18 @@
         <v>4.0</v>
       </c>
       <c r="BV171" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BW171" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -39302,14 +39813,17 @@
       </c>
       <c r="BV172" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BW172" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B173" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -39526,14 +40040,17 @@
       </c>
       <c r="BV173" t="n">
         <v>22381.0</v>
+      </c>
+      <c r="BW173" t="n">
+        <v>22393.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B174" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -39750,14 +40267,17 @@
       </c>
       <c r="BV174" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BW174" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -39974,14 +40494,17 @@
       </c>
       <c r="BV175" t="n">
         <v>130.0</v>
+      </c>
+      <c r="BW175" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B176" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -40197,15 +40720,18 @@
         <v>2.0</v>
       </c>
       <c r="BV176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BW176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B177" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -40422,14 +40948,17 @@
       </c>
       <c r="BV177" t="n">
         <v>261.0</v>
+      </c>
+      <c r="BW177" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -40646,14 +41175,17 @@
       </c>
       <c r="BV178" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BW178" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -40870,14 +41402,17 @@
       </c>
       <c r="BV179" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BW179" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B180" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -41094,14 +41629,17 @@
       </c>
       <c r="BV180" t="n">
         <v>98.0</v>
+      </c>
+      <c r="BW180" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -41318,14 +41856,17 @@
       </c>
       <c r="BV181" t="n">
         <v>1389.0</v>
+      </c>
+      <c r="BW181" t="n">
+        <v>1290.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -41542,14 +42083,17 @@
       </c>
       <c r="BV182" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BW182" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B183" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -41766,14 +42310,17 @@
       </c>
       <c r="BV183" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BW183" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -41989,15 +42536,18 @@
         <v>1256.0</v>
       </c>
       <c r="BV184" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="BW184" t="n">
         <v>1256.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B185" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -42214,14 +42764,17 @@
       </c>
       <c r="BV185" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BW185" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B186" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -42438,14 +42991,17 @@
       </c>
       <c r="BV186" t="n">
         <v>128.0</v>
+      </c>
+      <c r="BW186" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B187" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -42662,14 +43218,17 @@
       </c>
       <c r="BV187" t="n">
         <v>208.0</v>
+      </c>
+      <c r="BW187" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -42886,14 +43445,17 @@
       </c>
       <c r="BV188" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BW188" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -43110,14 +43672,17 @@
       </c>
       <c r="BV189" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BW189" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B190" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -43334,14 +43899,17 @@
       </c>
       <c r="BV190" t="n">
         <v>106.0</v>
+      </c>
+      <c r="BW190" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B191" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -43558,14 +44126,17 @@
       </c>
       <c r="BV191" t="n">
         <v>586.0</v>
+      </c>
+      <c r="BW191" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B192" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -43782,14 +44353,17 @@
       </c>
       <c r="BV192" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BW192" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -44005,15 +44579,18 @@
         <v>203.0</v>
       </c>
       <c r="BV193" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BW193" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B194" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -44230,14 +44807,17 @@
       </c>
       <c r="BV194" t="n">
         <v>708.0</v>
+      </c>
+      <c r="BW194" t="n">
+        <v>442.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B195" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -44454,14 +45034,17 @@
       </c>
       <c r="BV195" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BW195" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -44678,14 +45261,17 @@
       </c>
       <c r="BV196" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BW196" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -44901,15 +45487,18 @@
         <v>18.0</v>
       </c>
       <c r="BV197" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BW197" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -45126,14 +45715,17 @@
       </c>
       <c r="BV198" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BW198" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -45350,14 +45942,17 @@
       </c>
       <c r="BV199" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BW199" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -45573,15 +46168,18 @@
         <v>0.0</v>
       </c>
       <c r="BV200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B201" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -45798,14 +46396,17 @@
       </c>
       <c r="BV201" t="n">
         <v>219.0</v>
+      </c>
+      <c r="BW201" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -46022,14 +46623,17 @@
       </c>
       <c r="BV202" t="n">
         <v>157.0</v>
+      </c>
+      <c r="BW202" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -46246,14 +46850,17 @@
       </c>
       <c r="BV203" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BW203" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B204" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -46470,14 +47077,17 @@
       </c>
       <c r="BV204" t="n">
         <v>371.0</v>
+      </c>
+      <c r="BW204" t="n">
+        <v>377.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B205" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -46693,15 +47303,18 @@
         <v>0.0</v>
       </c>
       <c r="BV205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B206" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -46918,14 +47531,17 @@
       </c>
       <c r="BV206" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BW206" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -47142,14 +47758,17 @@
       </c>
       <c r="BV207" t="n">
         <v>202.0</v>
+      </c>
+      <c r="BW207" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -47365,15 +47984,18 @@
         <v>187.0</v>
       </c>
       <c r="BV208" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BW208" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -47590,14 +48212,17 @@
       </c>
       <c r="BV209" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BW209" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -47814,14 +48439,17 @@
       </c>
       <c r="BV210" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BW210" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B211" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -48037,15 +48665,18 @@
         <v>53.0</v>
       </c>
       <c r="BV211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BW211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -48262,14 +48893,17 @@
       </c>
       <c r="BV212" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BW212" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B213" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -48485,15 +49119,18 @@
         <v>103.0</v>
       </c>
       <c r="BV213" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="BW213" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B214" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -48709,15 +49346,18 @@
         <v>22.0</v>
       </c>
       <c r="BV214" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BW214" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B215" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -48933,15 +49573,18 @@
         <v>5724.0</v>
       </c>
       <c r="BV215" t="n">
+        <v>5723.0</v>
+      </c>
+      <c r="BW215" t="n">
         <v>5723.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -49158,14 +49801,17 @@
       </c>
       <c r="BV216" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BW216" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -49382,14 +50028,17 @@
       </c>
       <c r="BV217" t="n">
         <v>179.0</v>
+      </c>
+      <c r="BW217" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B218" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -49606,14 +50255,17 @@
       </c>
       <c r="BV218" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BW218" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B219" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -49830,14 +50482,17 @@
       </c>
       <c r="BV219" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BW219" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B220" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -50053,15 +50708,18 @@
         <v>0.0</v>
       </c>
       <c r="BV220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B221" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -50278,14 +50936,17 @@
       </c>
       <c r="BV221" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BW221" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B222" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -50502,14 +51163,17 @@
       </c>
       <c r="BV222" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BW222" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B223" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -50726,14 +51390,17 @@
       </c>
       <c r="BV223" t="n">
         <v>22501.0</v>
+      </c>
+      <c r="BW223" t="n">
+        <v>21623.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B224" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -50950,14 +51617,17 @@
       </c>
       <c r="BV224" t="n">
         <v>1278.0</v>
+      </c>
+      <c r="BW224" t="n">
+        <v>880.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -51173,15 +51843,18 @@
         <v>0.0</v>
       </c>
       <c r="BV225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -51397,15 +52070,18 @@
         <v>13.0</v>
       </c>
       <c r="BV226" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BW226" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B227" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -51621,15 +52297,18 @@
         <v>0.0</v>
       </c>
       <c r="BV227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B228" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -51846,14 +52525,17 @@
       </c>
       <c r="BV228" t="n">
         <v>408.0</v>
+      </c>
+      <c r="BW228" t="n">
+        <v>405.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B229" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -52070,14 +52752,17 @@
       </c>
       <c r="BV229" t="n">
         <v>330.0</v>
+      </c>
+      <c r="BW229" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B230" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -52294,14 +52979,17 @@
       </c>
       <c r="BV230" t="n">
         <v>971.0</v>
+      </c>
+      <c r="BW230" t="n">
+        <v>1024.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -52517,15 +53205,18 @@
         <v>60.0</v>
       </c>
       <c r="BV231" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BW231" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B232" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -52742,14 +53433,17 @@
       </c>
       <c r="BV232" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BW232" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B233" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -52966,14 +53660,17 @@
       </c>
       <c r="BV233" t="n">
         <v>474.0</v>
+      </c>
+      <c r="BW233" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B234" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -53189,15 +53886,18 @@
         <v>12.0</v>
       </c>
       <c r="BV234" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BW234" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B235" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -53414,14 +54114,17 @@
       </c>
       <c r="BV235" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BW235" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B236" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -53637,15 +54340,18 @@
         <v>501.0</v>
       </c>
       <c r="BV236" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="BW236" t="n">
         <v>501.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B237" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -53861,15 +54567,18 @@
         <v>1339.0</v>
       </c>
       <c r="BV237" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="BW237" t="n">
         <v>1339.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B238" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -54086,14 +54795,17 @@
       </c>
       <c r="BV238" t="n">
         <v>503.0</v>
+      </c>
+      <c r="BW238" t="n">
+        <v>388.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B239" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -54310,14 +55022,17 @@
       </c>
       <c r="BV239" t="n">
         <v>368.0</v>
+      </c>
+      <c r="BW239" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B240" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -54534,14 +55249,17 @@
       </c>
       <c r="BV240" t="n">
         <v>130.0</v>
+      </c>
+      <c r="BW240" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B241" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -54758,14 +55476,17 @@
       </c>
       <c r="BV241" t="n">
         <v>62.0</v>
+      </c>
+      <c r="BW241" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B242" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -54982,14 +55703,17 @@
       </c>
       <c r="BV242" t="n">
         <v>478.0</v>
+      </c>
+      <c r="BW242" t="n">
+        <v>451.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B243" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -55206,14 +55930,17 @@
       </c>
       <c r="BV243" t="n">
         <v>1992.0</v>
+      </c>
+      <c r="BW243" t="n">
+        <v>1878.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B244" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -55430,14 +56157,17 @@
       </c>
       <c r="BV244" t="n">
         <v>139.0</v>
+      </c>
+      <c r="BW244" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B245" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -55654,14 +56384,17 @@
       </c>
       <c r="BV245" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BW245" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B246" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -55878,14 +56611,17 @@
       </c>
       <c r="BV246" t="n">
         <v>412.0</v>
+      </c>
+      <c r="BW246" t="n">
+        <v>448.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B247" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -56102,14 +56838,17 @@
       </c>
       <c r="BV247" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BW247" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B248" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -56326,14 +57065,17 @@
       </c>
       <c r="BV248" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BW248" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B249" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -56549,15 +57291,18 @@
         <v>915.0</v>
       </c>
       <c r="BV249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="BW249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B250" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -56774,14 +57519,17 @@
       </c>
       <c r="BV250" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BW250" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B251" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -56998,14 +57746,17 @@
       </c>
       <c r="BV251" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BW251" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B252" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -57222,14 +57973,17 @@
       </c>
       <c r="BV252" t="n">
         <v>85.0</v>
+      </c>
+      <c r="BW252" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B253" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -57445,15 +58199,18 @@
         <v>1024.0</v>
       </c>
       <c r="BV253" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="BW253" t="n">
         <v>1024.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B254" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -57669,15 +58426,18 @@
         <v>8.0</v>
       </c>
       <c r="BV254" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BW254" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B255" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -57894,14 +58654,17 @@
       </c>
       <c r="BV255" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BW255" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B256" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -58118,14 +58881,17 @@
       </c>
       <c r="BV256" t="n">
         <v>118.0</v>
+      </c>
+      <c r="BW256" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B257" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -58342,14 +59108,17 @@
       </c>
       <c r="BV257" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BW257" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B258" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -58423,13 +59192,14 @@
       <c r="BT258"/>
       <c r="BU258"/>
       <c r="BV258"/>
+      <c r="BW258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B259" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -58503,13 +59273,14 @@
       <c r="BT259"/>
       <c r="BU259"/>
       <c r="BV259"/>
+      <c r="BW259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B260" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -58583,13 +59354,14 @@
       <c r="BT260"/>
       <c r="BU260"/>
       <c r="BV260"/>
+      <c r="BW260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B261" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -58663,13 +59435,14 @@
       <c r="BT261"/>
       <c r="BU261"/>
       <c r="BV261"/>
+      <c r="BW261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B262" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -58743,13 +59516,14 @@
       <c r="BT262"/>
       <c r="BU262"/>
       <c r="BV262"/>
+      <c r="BW262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B263" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -58823,13 +59597,14 @@
       <c r="BT263"/>
       <c r="BU263"/>
       <c r="BV263"/>
+      <c r="BW263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B264" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -58903,13 +59678,14 @@
       <c r="BT264"/>
       <c r="BU264"/>
       <c r="BV264"/>
+      <c r="BW264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B265" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -58983,13 +59759,14 @@
       <c r="BT265"/>
       <c r="BU265"/>
       <c r="BV265"/>
+      <c r="BW265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -59063,13 +59840,14 @@
       <c r="BT266"/>
       <c r="BU266"/>
       <c r="BV266"/>
+      <c r="BW266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B267" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -59143,13 +59921,14 @@
       <c r="BT267"/>
       <c r="BU267"/>
       <c r="BV267"/>
+      <c r="BW267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B268" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -59223,13 +60002,14 @@
       <c r="BT268"/>
       <c r="BU268"/>
       <c r="BV268"/>
+      <c r="BW268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -59303,13 +60083,14 @@
       <c r="BT269"/>
       <c r="BU269"/>
       <c r="BV269"/>
+      <c r="BW269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B270" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -59383,13 +60164,14 @@
       <c r="BT270"/>
       <c r="BU270"/>
       <c r="BV270"/>
+      <c r="BW270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B271" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -59463,13 +60245,14 @@
       <c r="BT271"/>
       <c r="BU271"/>
       <c r="BV271"/>
+      <c r="BW271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B272" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -59543,13 +60326,14 @@
       <c r="BT272"/>
       <c r="BU272"/>
       <c r="BV272"/>
+      <c r="BW272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B273" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -59623,13 +60407,14 @@
       <c r="BT273"/>
       <c r="BU273"/>
       <c r="BV273"/>
+      <c r="BW273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -59703,13 +60488,14 @@
       <c r="BT274"/>
       <c r="BU274"/>
       <c r="BV274"/>
+      <c r="BW274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -59783,13 +60569,14 @@
       <c r="BT275"/>
       <c r="BU275"/>
       <c r="BV275"/>
+      <c r="BW275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B276" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -59863,13 +60650,14 @@
       <c r="BT276"/>
       <c r="BU276"/>
       <c r="BV276"/>
+      <c r="BW276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B277" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -59943,13 +60731,14 @@
       <c r="BT277"/>
       <c r="BU277"/>
       <c r="BV277"/>
+      <c r="BW277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B278" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -60023,13 +60812,14 @@
       <c r="BT278"/>
       <c r="BU278"/>
       <c r="BV278"/>
+      <c r="BW278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B279" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -60103,6 +60893,7 @@
       <c r="BT279"/>
       <c r="BU279"/>
       <c r="BV279"/>
+      <c r="BW279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
